--- a/outputs-HGR-r202/g__CAG-521.xlsx
+++ b/outputs-HGR-r202/g__CAG-521.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,80 +494,121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17598.fa</t>
+          <t>even_MAG-GUT3478.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01862138816843302</v>
+        <v>0.03025236065863122</v>
       </c>
       <c r="C2" t="n">
-        <v>0.683012120440423</v>
+        <v>0.01181174243194513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09967699526173379</v>
+        <v>0.02626577004521092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00207961233728791</v>
+        <v>0.006232066400068015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01140261307014443</v>
+        <v>0.8773496529822528</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1833146062445078</v>
+        <v>0.04796235615814749</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001892664477470013</v>
+        <v>0.0001260513237445388</v>
       </c>
       <c r="I2" t="n">
-        <v>0.683012120440423</v>
+        <v>0.8773496529822528</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp002329575</t>
+          <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp002329575(reject)</t>
+          <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT44433.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0487378827072706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01762441942158469</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02813131400527578</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.003274229725758452</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8389977830603833</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0619124760755054</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0013218950042218</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8389977830603833</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT49445.fa</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>0.04993794892274501</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>0.009893377139071402</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03830239247406976</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>0.00137751358488354</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>0.8549806142142048</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>0.04510904184644469</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>0.0003991118185808955</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>0.8549806142142048</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>s__CAG-521 sp900546995</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-521.xlsx
+++ b/outputs-HGR-r202/g__CAG-521.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__CAG-521 sp002329575</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp002329575</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -845,6 +895,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +936,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +977,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +1018,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -987,6 +1057,11 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-521.xlsx
+++ b/outputs-HGR-r202/g__CAG-521.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +485,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -526,11 +521,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,11 +557,6 @@
           <t>s__CAG-521 sp002329575</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp002329575</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,11 +593,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,11 +629,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -690,11 +665,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -731,11 +701,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -772,11 +737,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -813,11 +773,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -854,11 +809,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -895,11 +845,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -936,11 +881,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -977,11 +917,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1018,11 +953,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1059,11 +989,6 @@
           <t>s__CAG-521 sp900545335</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900545335</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1100,11 +1025,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1141,11 +1061,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1182,11 +1097,6 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900546995</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1223,11 +1133,6 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1264,11 +1169,6 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1305,11 +1205,6 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1346,11 +1241,6 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1383,11 +1273,6 @@
         <v>0.4900004481337575</v>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>s__CAG-521 sp900554675</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>s__CAG-521 sp900554675</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-521.xlsx
+++ b/outputs-HGR-r202/g__CAG-521.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +567,11 @@
           <t>s__CAG-521 sp002329575</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp002329575</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +608,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -629,6 +649,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +690,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -701,6 +731,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +772,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -773,6 +813,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -809,6 +854,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -845,6 +895,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -881,6 +936,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -917,6 +977,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -953,6 +1018,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -989,6 +1059,11 @@
           <t>s__CAG-521 sp900545335</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900545335</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1025,6 +1100,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1061,6 +1141,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1097,6 +1182,11 @@
           <t>s__CAG-521 sp900546995</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900546995</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1133,6 +1223,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1169,6 +1264,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1205,6 +1305,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1241,6 +1346,11 @@
           <t>s__CAG-521 sp900554675</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1273,6 +1383,11 @@
         <v>0.4900004481337575</v>
       </c>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>s__CAG-521 sp900554675</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>s__CAG-521 sp900554675</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-521.xlsx
+++ b/outputs-HGR-r202/g__CAG-521.xlsx
@@ -1061,7 +1061,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp900545335</t>
+          <t>s__CAG-521 sp900545335(reject)</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp900546995</t>
+          <t>s__CAG-521 sp900546995(reject)</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp900554675</t>
+          <t>s__CAG-521 sp900554675(reject)</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>s__CAG-521 sp900554675</t>
+          <t>s__CAG-521 sp900554675(reject)</t>
         </is>
       </c>
     </row>
